--- a/trait_stressor_rankings/trait_stressor_sens_cco.xlsx
+++ b/trait_stressor_rankings/trait_stressor_sens_cco.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6580" yWindow="440" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="5800" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="salinity" sheetId="3" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="91">
   <si>
     <t>category</t>
   </si>
@@ -434,9 +434,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
@@ -458,8 +465,15 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="10">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -808,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -846,7 +860,9 @@
       <c r="C2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
@@ -859,7 +875,9 @@
       <c r="C3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
@@ -872,7 +890,9 @@
       <c r="C4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
@@ -885,7 +905,9 @@
       <c r="C5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
@@ -898,7 +920,9 @@
       <c r="C6" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
@@ -911,7 +935,9 @@
       <c r="C7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
@@ -924,7 +950,9 @@
       <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5">
@@ -937,7 +965,9 @@
       <c r="C9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5">
@@ -980,7 +1010,9 @@
       <c r="C12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
@@ -993,7 +1025,9 @@
       <c r="C13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
@@ -1006,7 +1040,9 @@
       <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
@@ -1019,7 +1055,9 @@
       <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
@@ -1032,7 +1070,9 @@
       <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
@@ -1045,7 +1085,9 @@
       <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
@@ -1058,7 +1100,9 @@
       <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5">
@@ -1071,7 +1115,9 @@
       <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
@@ -1084,7 +1130,9 @@
       <c r="C20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5">
@@ -1097,7 +1145,9 @@
       <c r="C21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5">
@@ -1110,7 +1160,9 @@
       <c r="C22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5">
@@ -1123,7 +1175,9 @@
       <c r="C23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5">
@@ -1136,7 +1190,9 @@
       <c r="C24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5">
@@ -1149,7 +1205,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5">
@@ -1162,7 +1220,9 @@
       <c r="C26" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5">
@@ -1175,7 +1235,9 @@
       <c r="C27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5">
@@ -1188,7 +1250,9 @@
       <c r="C28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5">
@@ -1201,7 +1265,9 @@
       <c r="C29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5">
@@ -1214,7 +1280,9 @@
       <c r="C30" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5">
@@ -1227,7 +1295,9 @@
       <c r="C31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5">
@@ -1240,7 +1310,9 @@
       <c r="C32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5">
@@ -1253,7 +1325,9 @@
       <c r="C33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5">
@@ -1266,7 +1340,9 @@
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5">
@@ -1279,7 +1355,9 @@
       <c r="C35" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5">
@@ -1292,7 +1370,9 @@
       <c r="C36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5">
@@ -1305,7 +1385,9 @@
       <c r="C37" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="12"/>
+      <c r="D37" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5">
@@ -1318,7 +1400,9 @@
       <c r="C38" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="12"/>
+      <c r="D38" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5">
@@ -1331,7 +1415,9 @@
       <c r="C39" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="12"/>
+      <c r="D39" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5">
@@ -1344,7 +1430,9 @@
       <c r="C40" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="12"/>
+      <c r="D40" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5">
@@ -1357,7 +1445,9 @@
       <c r="C41" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="12"/>
+      <c r="D41" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5">
@@ -1370,7 +1460,9 @@
       <c r="C42" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="14"/>
+      <c r="D42" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:5">
@@ -1383,7 +1475,9 @@
       <c r="C43" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="14"/>
+      <c r="D43" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:5">
@@ -1396,7 +1490,9 @@
       <c r="C44" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="14"/>
+      <c r="D44" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5">
@@ -1409,7 +1505,9 @@
       <c r="C45" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="14"/>
+      <c r="D45" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5">
@@ -1422,7 +1520,9 @@
       <c r="C46" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="14"/>
+      <c r="D46" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:5">
@@ -1435,7 +1535,9 @@
       <c r="C47" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="14"/>
+      <c r="D47" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:5">
@@ -1448,7 +1550,9 @@
       <c r="C48" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="12"/>
+      <c r="D48" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5">
@@ -1461,7 +1565,9 @@
       <c r="C49" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="12"/>
+      <c r="D49" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5">
@@ -1474,7 +1580,9 @@
       <c r="C50" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="12"/>
+      <c r="D50" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:5">
@@ -1487,7 +1595,9 @@
       <c r="C51" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="12"/>
+      <c r="D51" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E51" s="12"/>
     </row>
     <row r="52" spans="1:5">
@@ -1500,7 +1610,9 @@
       <c r="C52" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="14"/>
+      <c r="D52" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E52" s="14"/>
     </row>
     <row r="53" spans="1:5">
@@ -1513,7 +1625,9 @@
       <c r="C53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="14"/>
+      <c r="D53" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E53" s="14"/>
     </row>
     <row r="54" spans="1:5">
@@ -1526,7 +1640,9 @@
       <c r="C54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="14"/>
+      <c r="D54" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E54" s="14"/>
     </row>
     <row r="55" spans="1:5">
@@ -1539,7 +1655,9 @@
       <c r="C55" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D55" s="14"/>
+      <c r="D55" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E55" s="14"/>
     </row>
     <row r="56" spans="1:5">
@@ -1552,7 +1670,9 @@
       <c r="C56" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="14"/>
+      <c r="D56" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E56" s="14"/>
     </row>
     <row r="57" spans="1:5">
@@ -1565,7 +1685,9 @@
       <c r="C57" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="14"/>
+      <c r="D57" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E57" s="14"/>
     </row>
     <row r="58" spans="1:5">
@@ -1578,7 +1700,9 @@
       <c r="C58" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="12"/>
+      <c r="D58" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E58" s="12"/>
     </row>
     <row r="59" spans="1:5">
@@ -1591,7 +1715,9 @@
       <c r="C59" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="12"/>
+      <c r="D59" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E59" s="12"/>
     </row>
     <row r="60" spans="1:5">
@@ -1604,7 +1730,9 @@
       <c r="C60" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D60" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E60" s="14"/>
     </row>
     <row r="61" spans="1:5">
@@ -1617,7 +1745,9 @@
       <c r="C61" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="14"/>
+      <c r="D61" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E61" s="14"/>
     </row>
     <row r="62" spans="1:5">
@@ -1630,7 +1760,9 @@
       <c r="C62" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="12"/>
+      <c r="D62" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E62" s="12"/>
     </row>
     <row r="63" spans="1:5">
@@ -1643,7 +1775,9 @@
       <c r="C63" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="12"/>
+      <c r="D63" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E63" s="12"/>
     </row>
     <row r="64" spans="1:5">
@@ -1656,7 +1790,9 @@
       <c r="C64" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D64" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E64" s="14"/>
     </row>
     <row r="65" spans="1:5">
@@ -1669,7 +1805,9 @@
       <c r="C65" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="14"/>
+      <c r="D65" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:5">
@@ -1682,7 +1820,9 @@
       <c r="C66" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="12"/>
+      <c r="D66" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E66" s="12"/>
     </row>
     <row r="67" spans="1:5">
@@ -1695,7 +1835,9 @@
       <c r="C67" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="12"/>
+      <c r="D67" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E67" s="12"/>
     </row>
     <row r="68" spans="1:5">
@@ -1708,7 +1850,9 @@
       <c r="C68" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D68" s="14"/>
+      <c r="D68" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E68" s="14"/>
     </row>
     <row r="69" spans="1:5">
@@ -1721,7 +1865,9 @@
       <c r="C69" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="14"/>
+      <c r="D69" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E69" s="14"/>
     </row>
     <row r="70" spans="1:5">
@@ -1734,7 +1880,9 @@
       <c r="C70" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="14"/>
+      <c r="D70" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E70" s="14"/>
     </row>
     <row r="71" spans="1:5">
@@ -1747,7 +1895,9 @@
       <c r="C71" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="12"/>
+      <c r="D71" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E71" s="12"/>
     </row>
     <row r="72" spans="1:5">
@@ -1760,7 +1910,9 @@
       <c r="C72" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D72" s="12"/>
+      <c r="D72" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E72" s="12"/>
     </row>
     <row r="73" spans="1:5">
@@ -1773,7 +1925,9 @@
       <c r="C73" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D73" s="12"/>
+      <c r="D73" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E73" s="12"/>
     </row>
     <row r="74" spans="1:5">
@@ -1786,7 +1940,9 @@
       <c r="C74" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D74" s="12"/>
+      <c r="D74" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E74" s="12"/>
     </row>
     <row r="75" spans="1:5">
@@ -1799,7 +1955,9 @@
       <c r="C75" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D75" s="12"/>
+      <c r="D75" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E75" s="12"/>
     </row>
     <row r="76" spans="1:5">
@@ -1812,7 +1970,9 @@
       <c r="C76" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D76" s="12"/>
+      <c r="D76" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E76" s="12"/>
     </row>
   </sheetData>
@@ -1830,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1868,7 +2028,9 @@
       <c r="C2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
@@ -1881,7 +2043,9 @@
       <c r="C3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
@@ -1894,7 +2058,9 @@
       <c r="C4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
@@ -1907,7 +2073,9 @@
       <c r="C5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
@@ -1920,7 +2088,9 @@
       <c r="C6" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
@@ -1933,7 +2103,9 @@
       <c r="C7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
@@ -1946,7 +2118,9 @@
       <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5">
@@ -1959,7 +2133,9 @@
       <c r="C9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5">
@@ -1972,7 +2148,9 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
@@ -1985,7 +2163,9 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
@@ -1998,7 +2178,9 @@
       <c r="C12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
@@ -2011,8 +2193,8 @@
       <c r="C13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="8">
-        <v>0</v>
+      <c r="D13" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="E13" s="8"/>
     </row>
@@ -2026,8 +2208,8 @@
       <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="8">
-        <v>0</v>
+      <c r="D14" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="E14" s="8"/>
     </row>
@@ -2041,8 +2223,8 @@
       <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="8">
-        <v>1</v>
+      <c r="D15" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="E15" s="8"/>
     </row>
@@ -2056,7 +2238,9 @@
       <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
@@ -2069,7 +2253,9 @@
       <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
@@ -2082,7 +2268,9 @@
       <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5">
@@ -2095,7 +2283,9 @@
       <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
@@ -2108,7 +2298,9 @@
       <c r="C20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5">
@@ -2121,7 +2313,9 @@
       <c r="C21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5">
@@ -2134,7 +2328,9 @@
       <c r="C22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5">
@@ -2147,7 +2343,9 @@
       <c r="C23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5">
@@ -2160,7 +2358,9 @@
       <c r="C24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5">
@@ -2173,7 +2373,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5">
@@ -2186,7 +2388,9 @@
       <c r="C26" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5">
@@ -2199,7 +2403,9 @@
       <c r="C27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5">
@@ -2212,7 +2418,9 @@
       <c r="C28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5">
@@ -2225,7 +2433,9 @@
       <c r="C29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5">
@@ -2238,7 +2448,9 @@
       <c r="C30" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5">
@@ -2251,7 +2463,9 @@
       <c r="C31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5">
@@ -2264,7 +2478,9 @@
       <c r="C32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5">
@@ -2277,7 +2493,9 @@
       <c r="C33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5">
@@ -2290,7 +2508,9 @@
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5">
@@ -2303,7 +2523,9 @@
       <c r="C35" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5">
@@ -2316,7 +2538,9 @@
       <c r="C36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5">
@@ -2329,7 +2553,9 @@
       <c r="C37" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="12"/>
+      <c r="D37" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5">
@@ -2342,7 +2568,9 @@
       <c r="C38" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="12"/>
+      <c r="D38" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5">
@@ -2355,7 +2583,9 @@
       <c r="C39" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="12"/>
+      <c r="D39" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5">
@@ -2368,7 +2598,9 @@
       <c r="C40" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="12"/>
+      <c r="D40" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5">
@@ -2381,7 +2613,9 @@
       <c r="C41" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="12"/>
+      <c r="D41" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5">
@@ -2644,7 +2878,9 @@
       <c r="C58" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="12"/>
+      <c r="D58" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E58" s="12"/>
     </row>
     <row r="59" spans="1:5">
@@ -2657,7 +2893,9 @@
       <c r="C59" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="12"/>
+      <c r="D59" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E59" s="12"/>
     </row>
     <row r="60" spans="1:5">
@@ -2670,7 +2908,9 @@
       <c r="C60" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D60" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E60" s="14"/>
     </row>
     <row r="61" spans="1:5">
@@ -2683,7 +2923,9 @@
       <c r="C61" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="14"/>
+      <c r="D61" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E61" s="14"/>
     </row>
     <row r="62" spans="1:5">
@@ -2696,7 +2938,9 @@
       <c r="C62" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="12"/>
+      <c r="D62" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E62" s="12"/>
     </row>
     <row r="63" spans="1:5">
@@ -2709,7 +2953,9 @@
       <c r="C63" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="12"/>
+      <c r="D63" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E63" s="12"/>
     </row>
     <row r="64" spans="1:5">
@@ -2722,7 +2968,9 @@
       <c r="C64" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D64" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E64" s="14"/>
     </row>
     <row r="65" spans="1:5">
@@ -2735,7 +2983,9 @@
       <c r="C65" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="14"/>
+      <c r="D65" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:5">
@@ -2748,7 +2998,9 @@
       <c r="C66" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="12"/>
+      <c r="D66" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E66" s="12"/>
     </row>
     <row r="67" spans="1:5">
@@ -2761,7 +3013,9 @@
       <c r="C67" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="12"/>
+      <c r="D67" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E67" s="12"/>
     </row>
     <row r="68" spans="1:5">
@@ -2774,7 +3028,9 @@
       <c r="C68" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D68" s="14"/>
+      <c r="D68" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E68" s="14"/>
     </row>
     <row r="69" spans="1:5">
@@ -2787,7 +3043,9 @@
       <c r="C69" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="14"/>
+      <c r="D69" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E69" s="14"/>
     </row>
     <row r="70" spans="1:5">
@@ -2800,7 +3058,9 @@
       <c r="C70" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="14"/>
+      <c r="D70" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E70" s="14"/>
     </row>
     <row r="71" spans="1:5">
@@ -2813,7 +3073,9 @@
       <c r="C71" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="12"/>
+      <c r="D71" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E71" s="12"/>
     </row>
     <row r="72" spans="1:5">
@@ -2826,7 +3088,9 @@
       <c r="C72" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D72" s="12"/>
+      <c r="D72" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E72" s="12"/>
     </row>
     <row r="73" spans="1:5">
@@ -2839,7 +3103,9 @@
       <c r="C73" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D73" s="12"/>
+      <c r="D73" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E73" s="12"/>
     </row>
     <row r="74" spans="1:5">
@@ -2852,7 +3118,9 @@
       <c r="C74" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D74" s="12"/>
+      <c r="D74" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E74" s="12"/>
     </row>
     <row r="75" spans="1:5">
@@ -2865,7 +3133,9 @@
       <c r="C75" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D75" s="12"/>
+      <c r="D75" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E75" s="12"/>
     </row>
     <row r="76" spans="1:5">
@@ -2878,7 +3148,9 @@
       <c r="C76" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D76" s="12"/>
+      <c r="D76" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E76" s="12"/>
     </row>
   </sheetData>
@@ -2900,8 +3172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71:D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2938,7 +3210,9 @@
       <c r="C2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
@@ -2951,7 +3225,9 @@
       <c r="C3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
@@ -2964,7 +3240,9 @@
       <c r="C4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
@@ -2977,7 +3255,9 @@
       <c r="C5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
@@ -2990,7 +3270,9 @@
       <c r="C6" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
@@ -3003,7 +3285,9 @@
       <c r="C7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
@@ -3016,7 +3300,9 @@
       <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5">
@@ -3029,7 +3315,9 @@
       <c r="C9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5">
@@ -3042,7 +3330,9 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
@@ -3055,7 +3345,9 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
@@ -3068,7 +3360,9 @@
       <c r="C12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
@@ -3081,7 +3375,9 @@
       <c r="C13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
@@ -3094,7 +3390,9 @@
       <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
@@ -3107,7 +3405,9 @@
       <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
@@ -3120,7 +3420,9 @@
       <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
@@ -3133,7 +3435,9 @@
       <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
@@ -3146,7 +3450,9 @@
       <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5">
@@ -3159,7 +3465,9 @@
       <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
@@ -3172,7 +3480,9 @@
       <c r="C20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5">
@@ -3185,7 +3495,9 @@
       <c r="C21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5">
@@ -3198,7 +3510,9 @@
       <c r="C22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5">
@@ -3211,7 +3525,9 @@
       <c r="C23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5">
@@ -3224,7 +3540,9 @@
       <c r="C24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5">
@@ -3237,7 +3555,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5">
@@ -3250,7 +3570,9 @@
       <c r="C26" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5">
@@ -3263,7 +3585,9 @@
       <c r="C27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5">
@@ -3276,7 +3600,9 @@
       <c r="C28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5">
@@ -3289,7 +3615,9 @@
       <c r="C29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5">
@@ -3302,7 +3630,9 @@
       <c r="C30" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5">
@@ -3315,7 +3645,9 @@
       <c r="C31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5">
@@ -3328,7 +3660,9 @@
       <c r="C32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5">
@@ -3341,7 +3675,9 @@
       <c r="C33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5">
@@ -3354,7 +3690,9 @@
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5">
@@ -3367,7 +3705,9 @@
       <c r="C35" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5">
@@ -3380,7 +3720,9 @@
       <c r="C36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5">
@@ -3393,7 +3735,9 @@
       <c r="C37" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="12"/>
+      <c r="D37" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5">
@@ -3406,7 +3750,9 @@
       <c r="C38" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="12"/>
+      <c r="D38" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5">
@@ -3419,7 +3765,9 @@
       <c r="C39" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="12"/>
+      <c r="D39" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5">
@@ -3432,7 +3780,9 @@
       <c r="C40" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="12"/>
+      <c r="D40" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5">
@@ -3445,7 +3795,9 @@
       <c r="C41" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="12"/>
+      <c r="D41" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5">
@@ -3458,7 +3810,9 @@
       <c r="C42" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="14"/>
+      <c r="D42" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:5">
@@ -3471,7 +3825,9 @@
       <c r="C43" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="14"/>
+      <c r="D43" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:5">
@@ -3484,7 +3840,9 @@
       <c r="C44" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="14"/>
+      <c r="D44" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5">
@@ -3497,7 +3855,9 @@
       <c r="C45" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="14"/>
+      <c r="D45" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5">
@@ -3510,7 +3870,9 @@
       <c r="C46" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="14"/>
+      <c r="D46" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:5">
@@ -3523,7 +3885,9 @@
       <c r="C47" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="14"/>
+      <c r="D47" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:5">
@@ -3536,7 +3900,9 @@
       <c r="C48" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="12"/>
+      <c r="D48" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5">
@@ -3549,7 +3915,9 @@
       <c r="C49" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="12"/>
+      <c r="D49" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5">
@@ -3562,7 +3930,9 @@
       <c r="C50" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="12"/>
+      <c r="D50" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:5">
@@ -3575,7 +3945,9 @@
       <c r="C51" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="12"/>
+      <c r="D51" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E51" s="12"/>
     </row>
     <row r="52" spans="1:5">
@@ -3588,7 +3960,9 @@
       <c r="C52" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="14"/>
+      <c r="D52" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E52" s="14"/>
     </row>
     <row r="53" spans="1:5">
@@ -3601,7 +3975,9 @@
       <c r="C53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="14"/>
+      <c r="D53" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E53" s="14"/>
     </row>
     <row r="54" spans="1:5">
@@ -3614,7 +3990,9 @@
       <c r="C54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="14"/>
+      <c r="D54" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E54" s="14"/>
     </row>
     <row r="55" spans="1:5">
@@ -3627,7 +4005,9 @@
       <c r="C55" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D55" s="14"/>
+      <c r="D55" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E55" s="14"/>
     </row>
     <row r="56" spans="1:5">
@@ -3640,7 +4020,9 @@
       <c r="C56" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="14"/>
+      <c r="D56" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E56" s="14"/>
     </row>
     <row r="57" spans="1:5">
@@ -3653,7 +4035,9 @@
       <c r="C57" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="14"/>
+      <c r="D57" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E57" s="14"/>
     </row>
     <row r="58" spans="1:5">
@@ -3666,7 +4050,9 @@
       <c r="C58" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="12"/>
+      <c r="D58" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E58" s="12"/>
     </row>
     <row r="59" spans="1:5">
@@ -3679,7 +4065,9 @@
       <c r="C59" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="12"/>
+      <c r="D59" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E59" s="12"/>
     </row>
     <row r="60" spans="1:5">
@@ -3752,7 +4140,9 @@
       <c r="C64" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D64" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E64" s="14"/>
     </row>
     <row r="65" spans="1:5">
@@ -3765,7 +4155,9 @@
       <c r="C65" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="14"/>
+      <c r="D65" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:5">
@@ -3778,7 +4170,9 @@
       <c r="C66" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="12"/>
+      <c r="D66" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E66" s="12"/>
     </row>
     <row r="67" spans="1:5">
@@ -3791,7 +4185,9 @@
       <c r="C67" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="12"/>
+      <c r="D67" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E67" s="12"/>
     </row>
     <row r="68" spans="1:5">
@@ -3849,7 +4245,9 @@
       <c r="C71" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="12"/>
+      <c r="D71" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E71" s="12"/>
     </row>
     <row r="72" spans="1:5">
@@ -3862,7 +4260,9 @@
       <c r="C72" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D72" s="12"/>
+      <c r="D72" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E72" s="12"/>
     </row>
     <row r="73" spans="1:5">
@@ -3875,7 +4275,9 @@
       <c r="C73" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D73" s="12"/>
+      <c r="D73" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E73" s="12"/>
     </row>
     <row r="74" spans="1:5">
@@ -3888,7 +4290,9 @@
       <c r="C74" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D74" s="12"/>
+      <c r="D74" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E74" s="12"/>
     </row>
     <row r="75" spans="1:5">
@@ -3901,7 +4305,9 @@
       <c r="C75" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D75" s="12"/>
+      <c r="D75" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E75" s="12"/>
     </row>
     <row r="76" spans="1:5">
@@ -3914,7 +4320,9 @@
       <c r="C76" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D76" s="12"/>
+      <c r="D76" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E76" s="12"/>
     </row>
   </sheetData>
@@ -3932,8 +4340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3970,7 +4378,9 @@
       <c r="C2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
@@ -3983,7 +4393,9 @@
       <c r="C3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
@@ -3996,7 +4408,9 @@
       <c r="C4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
@@ -4009,7 +4423,9 @@
       <c r="C5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
@@ -4022,7 +4438,9 @@
       <c r="C6" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
@@ -4035,7 +4453,9 @@
       <c r="C7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
@@ -4048,7 +4468,9 @@
       <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5">
@@ -4061,7 +4483,9 @@
       <c r="C9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5">
@@ -4074,7 +4498,9 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
@@ -4087,7 +4513,9 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
@@ -4100,7 +4528,9 @@
       <c r="C12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
@@ -4113,7 +4543,9 @@
       <c r="C13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
@@ -4126,7 +4558,9 @@
       <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
@@ -4139,7 +4573,9 @@
       <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
@@ -4152,7 +4588,9 @@
       <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
@@ -4165,7 +4603,9 @@
       <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
@@ -4178,7 +4618,9 @@
       <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5">
@@ -4191,7 +4633,9 @@
       <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
@@ -4204,7 +4648,9 @@
       <c r="C20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5">
@@ -4217,7 +4663,9 @@
       <c r="C21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5">
@@ -4230,7 +4678,9 @@
       <c r="C22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5">
@@ -4275,7 +4725,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5">
@@ -4288,7 +4740,9 @@
       <c r="C26" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5">
@@ -4301,7 +4755,9 @@
       <c r="C27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5">
@@ -4314,7 +4770,9 @@
       <c r="C28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5">
@@ -4327,7 +4785,9 @@
       <c r="C29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5">
@@ -4340,7 +4800,9 @@
       <c r="C30" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5">
@@ -4353,7 +4815,9 @@
       <c r="C31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5">
@@ -4366,7 +4830,9 @@
       <c r="C32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5">
@@ -4379,7 +4845,9 @@
       <c r="C33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5">
@@ -4392,7 +4860,9 @@
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5">
@@ -4405,7 +4875,9 @@
       <c r="C35" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5">
@@ -4418,7 +4890,9 @@
       <c r="C36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5">
@@ -4431,7 +4905,9 @@
       <c r="C37" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="12"/>
+      <c r="D37" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5">
@@ -4444,7 +4920,9 @@
       <c r="C38" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="12"/>
+      <c r="D38" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5">
@@ -4457,7 +4935,9 @@
       <c r="C39" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="12"/>
+      <c r="D39" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5">
@@ -4470,7 +4950,9 @@
       <c r="C40" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="12"/>
+      <c r="D40" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5">
@@ -4483,7 +4965,9 @@
       <c r="C41" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="12"/>
+      <c r="D41" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5">
@@ -4496,7 +4980,9 @@
       <c r="C42" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="14"/>
+      <c r="D42" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:5">
@@ -4509,7 +4995,9 @@
       <c r="C43" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="14"/>
+      <c r="D43" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:5">
@@ -4522,7 +5010,9 @@
       <c r="C44" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="14"/>
+      <c r="D44" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5">
@@ -4535,7 +5025,9 @@
       <c r="C45" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="14"/>
+      <c r="D45" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5">
@@ -4548,7 +5040,9 @@
       <c r="C46" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="14"/>
+      <c r="D46" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:5">
@@ -4561,7 +5055,9 @@
       <c r="C47" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="14"/>
+      <c r="D47" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:5">
@@ -4574,7 +5070,9 @@
       <c r="C48" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="12"/>
+      <c r="D48" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5">
@@ -4587,7 +5085,9 @@
       <c r="C49" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="12"/>
+      <c r="D49" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5">
@@ -4600,7 +5100,9 @@
       <c r="C50" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="12"/>
+      <c r="D50" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:5">
@@ -4613,7 +5115,9 @@
       <c r="C51" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="12"/>
+      <c r="D51" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E51" s="12"/>
     </row>
     <row r="52" spans="1:5">
@@ -4626,7 +5130,9 @@
       <c r="C52" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="14"/>
+      <c r="D52" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E52" s="14"/>
     </row>
     <row r="53" spans="1:5">
@@ -4639,7 +5145,9 @@
       <c r="C53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="14"/>
+      <c r="D53" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E53" s="14"/>
     </row>
     <row r="54" spans="1:5">
@@ -4652,7 +5160,9 @@
       <c r="C54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="14"/>
+      <c r="D54" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E54" s="14"/>
     </row>
     <row r="55" spans="1:5">
@@ -4665,7 +5175,9 @@
       <c r="C55" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D55" s="14"/>
+      <c r="D55" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E55" s="14"/>
     </row>
     <row r="56" spans="1:5">
@@ -4678,7 +5190,9 @@
       <c r="C56" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="14"/>
+      <c r="D56" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E56" s="14"/>
     </row>
     <row r="57" spans="1:5">
@@ -4691,7 +5205,9 @@
       <c r="C57" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="14"/>
+      <c r="D57" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E57" s="14"/>
     </row>
     <row r="58" spans="1:5">
@@ -4704,7 +5220,9 @@
       <c r="C58" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="12"/>
+      <c r="D58" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E58" s="12"/>
     </row>
     <row r="59" spans="1:5">
@@ -4717,7 +5235,9 @@
       <c r="C59" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="12"/>
+      <c r="D59" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E59" s="12"/>
     </row>
     <row r="60" spans="1:5">
@@ -4730,7 +5250,9 @@
       <c r="C60" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D60" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E60" s="14"/>
     </row>
     <row r="61" spans="1:5">
@@ -4743,7 +5265,9 @@
       <c r="C61" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="14"/>
+      <c r="D61" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E61" s="14"/>
     </row>
     <row r="62" spans="1:5">
@@ -4756,7 +5280,9 @@
       <c r="C62" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="12"/>
+      <c r="D62" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E62" s="12"/>
     </row>
     <row r="63" spans="1:5">
@@ -4769,7 +5295,9 @@
       <c r="C63" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="12"/>
+      <c r="D63" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E63" s="12"/>
     </row>
     <row r="64" spans="1:5">
@@ -4812,7 +5340,9 @@
       <c r="C66" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="12"/>
+      <c r="D66" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E66" s="12"/>
     </row>
     <row r="67" spans="1:5">
@@ -4825,7 +5355,9 @@
       <c r="C67" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="12"/>
+      <c r="D67" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E67" s="12"/>
     </row>
     <row r="68" spans="1:5">
@@ -4838,7 +5370,9 @@
       <c r="C68" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D68" s="14"/>
+      <c r="D68" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E68" s="14"/>
     </row>
     <row r="69" spans="1:5">
@@ -4851,7 +5385,9 @@
       <c r="C69" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="14"/>
+      <c r="D69" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E69" s="14"/>
     </row>
     <row r="70" spans="1:5">
@@ -4864,7 +5400,9 @@
       <c r="C70" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="14"/>
+      <c r="D70" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="E70" s="14"/>
     </row>
     <row r="71" spans="1:5">
@@ -4877,7 +5415,9 @@
       <c r="C71" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="12"/>
+      <c r="D71" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E71" s="12"/>
     </row>
     <row r="72" spans="1:5">
@@ -4890,7 +5430,9 @@
       <c r="C72" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D72" s="12"/>
+      <c r="D72" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E72" s="12"/>
     </row>
     <row r="73" spans="1:5">
@@ -4903,7 +5445,9 @@
       <c r="C73" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D73" s="12"/>
+      <c r="D73" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E73" s="12"/>
     </row>
     <row r="74" spans="1:5">
@@ -4916,7 +5460,9 @@
       <c r="C74" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D74" s="12"/>
+      <c r="D74" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E74" s="12"/>
     </row>
     <row r="75" spans="1:5">
@@ -4929,7 +5475,9 @@
       <c r="C75" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D75" s="12"/>
+      <c r="D75" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E75" s="12"/>
     </row>
     <row r="76" spans="1:5">
@@ -4942,7 +5490,9 @@
       <c r="C76" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D76" s="12"/>
+      <c r="D76" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="E76" s="12"/>
     </row>
   </sheetData>

--- a/trait_stressor_rankings/trait_stressor_sens_cco.xlsx
+++ b/trait_stressor_rankings/trait_stressor_sens_cco.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="5800" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="salinity" sheetId="3" r:id="rId1"/>
@@ -13,10 +13,10 @@
     <sheet name="light_pollution" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="sens_traits" localSheetId="3">light_pollution!$A$1:$C$76</definedName>
-    <definedName name="sens_traits" localSheetId="2">noise_pollution!$A$1:$C$76</definedName>
-    <definedName name="sens_traits" localSheetId="1">ocean_acidification!$A$1:$C$76</definedName>
-    <definedName name="sens_traits" localSheetId="0">salinity!$A$1:$C$76</definedName>
+    <definedName name="sens_traits" localSheetId="3">light_pollution!$A$1:$C$80</definedName>
+    <definedName name="sens_traits" localSheetId="2">noise_pollution!$A$1:$C$80</definedName>
+    <definedName name="sens_traits" localSheetId="1">ocean_acidification!$A$1:$C$80</definedName>
+    <definedName name="sens_traits" localSheetId="0">salinity!$A$1:$C$80</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="104">
   <si>
     <t>category</t>
   </si>
@@ -342,13 +342,52 @@
   </si>
   <si>
     <t>low</t>
+  </si>
+  <si>
+    <t>R (Reproductive Traits)</t>
+  </si>
+  <si>
+    <t>feeding larva (post-hatching metamorphosis)</t>
+  </si>
+  <si>
+    <t>feeding</t>
+  </si>
+  <si>
+    <t>non-feeding</t>
+  </si>
+  <si>
+    <t>no larva</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41598-020-69568-w.pdf?origin=ppub</t>
+  </si>
+  <si>
+    <t>salinity affects growth in oyster larvae</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41598-020-69568-w.pdf?origin=ppub suggests no effect of OA on oyster larvae.</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/nclimate1324 suggests very deleterious effects on teleosts</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/full/10.1111/gcb.12133 shows larval cobia suffer slightly under OA but they are pretty robust critters</t>
+  </si>
+  <si>
+    <t>references</t>
+  </si>
+  <si>
+    <t>https://esajournals.onlinelibrary.wiley.com/doi/full/10.1890/130281</t>
+  </si>
+  <si>
+    <t>light pollution may disrupt settlement of larvae of sessile inverts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -380,8 +419,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,6 +470,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -434,7 +486,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -445,8 +497,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -464,8 +519,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -474,6 +532,9 @@
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -820,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -833,7 +894,7 @@
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
+    <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,68 +910,78 @@
       <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="18" customFormat="1">
+      <c r="A2" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="18" customFormat="1">
+      <c r="A3" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" s="18" customFormat="1">
+      <c r="A4" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" s="18" customFormat="1">
+      <c r="A5" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -918,14 +989,14 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -933,142 +1004,142 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="D12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="D13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>3</v>
@@ -1079,176 +1150,176 @@
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="4"/>
+      <c r="B17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="4"/>
+      <c r="B18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="4"/>
+      <c r="B19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="8"/>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="8"/>
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="6"/>
+      <c r="C24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="10"/>
+      <c r="A25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="10"/>
+      <c r="A26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="10"/>
+      <c r="B27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>3</v>
@@ -1259,23 +1330,23 @@
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="6"/>
+      <c r="B29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>4</v>
@@ -1290,7 +1361,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>5</v>
@@ -1305,10 +1376,10 @@
         <v>25</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>3</v>
@@ -1320,10 +1391,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>3</v>
@@ -1334,26 +1405,26 @@
       <c r="A34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="6"/>
+      <c r="B34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>3</v>
@@ -1364,76 +1435,76 @@
       <c r="A36" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="12"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="12"/>
+      <c r="D40" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="11" t="s">
@@ -1443,7 +1514,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>3</v>
@@ -1454,61 +1525,61 @@
       <c r="A42" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="14"/>
+      <c r="B42" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="14"/>
+      <c r="B43" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="14"/>
+      <c r="B44" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="14"/>
+      <c r="B45" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="11" t="s">
@@ -1518,7 +1589,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>3</v>
@@ -1533,7 +1604,7 @@
         <v>44</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>3</v>
@@ -1544,121 +1615,121 @@
       <c r="A48" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="12"/>
+      <c r="B48" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="12"/>
+      <c r="B49" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="14"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="12"/>
+      <c r="B50" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="14"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="12"/>
+      <c r="B51" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="14"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B52" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="14"/>
+      <c r="B52" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="12"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="14"/>
+      <c r="B53" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="14"/>
+      <c r="B54" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="14"/>
+      <c r="B55" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="12"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="11" t="s">
@@ -1668,7 +1739,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>3</v>
@@ -1683,7 +1754,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>3</v>
@@ -1694,41 +1765,41 @@
       <c r="A58" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="12"/>
+      <c r="B58" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="14"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="12"/>
+      <c r="B59" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="14"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>3</v>
@@ -1740,10 +1811,10 @@
         <v>37</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>3</v>
@@ -1755,7 +1826,7 @@
         <v>37</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>4</v>
@@ -1770,7 +1841,7 @@
         <v>37</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>5</v>
@@ -1785,7 +1856,7 @@
         <v>37</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>4</v>
@@ -1800,7 +1871,7 @@
         <v>37</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>5</v>
@@ -1815,7 +1886,7 @@
         <v>37</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>4</v>
@@ -1830,7 +1901,7 @@
         <v>37</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>5</v>
@@ -1845,10 +1916,10 @@
         <v>37</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>3</v>
@@ -1860,10 +1931,10 @@
         <v>37</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>3</v>
@@ -1874,26 +1945,26 @@
       <c r="A70" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B70" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="14"/>
+      <c r="B70" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="12"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>3</v>
@@ -1904,46 +1975,46 @@
       <c r="A72" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="12"/>
+      <c r="B72" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="14"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="12"/>
+      <c r="B73" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="14"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="12"/>
+      <c r="B74" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="11" t="s">
@@ -1953,7 +2024,7 @@
         <v>67</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>3</v>
@@ -1968,12 +2039,72 @@
         <v>67</v>
       </c>
       <c r="C76" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="12"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="12"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="12"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="12"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D76" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="12"/>
+      <c r="D80" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1988,10 +2119,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2001,7 +2132,7 @@
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
+    <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2017,68 +2148,78 @@
       <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="18" customFormat="1">
+      <c r="A2" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="18" customFormat="1">
+      <c r="A3" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="18" customFormat="1">
+      <c r="A4" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="18" customFormat="1">
+      <c r="A5" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2086,14 +2227,14 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -2101,142 +2242,142 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="D12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="D13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="D14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="D15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>3</v>
@@ -2247,176 +2388,176 @@
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="4"/>
+      <c r="B17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="4"/>
+      <c r="B18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="4"/>
+      <c r="B19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="8"/>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="8"/>
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="6"/>
+      <c r="C24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="10"/>
+      <c r="A25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="10"/>
+      <c r="A26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="10"/>
+      <c r="B27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>3</v>
@@ -2427,23 +2568,23 @@
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="6"/>
+      <c r="B29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>4</v>
@@ -2458,7 +2599,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>5</v>
@@ -2473,10 +2614,10 @@
         <v>25</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>3</v>
@@ -2488,10 +2629,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>3</v>
@@ -2502,26 +2643,26 @@
       <c r="A34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="6"/>
+      <c r="B34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>3</v>
@@ -2532,76 +2673,76 @@
       <c r="A36" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="12"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="12"/>
+      <c r="D40" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="11" t="s">
@@ -2611,7 +2752,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>3</v>
@@ -2622,63 +2763,61 @@
       <c r="A42" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>88</v>
-      </c>
+      <c r="B42" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="14"/>
+      <c r="B43" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="14"/>
+      <c r="B44" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" s="14"/>
+      <c r="B45" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="11" t="s">
@@ -2688,12 +2827,14 @@
         <v>44</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E46" s="14"/>
+        <v>45</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="11" t="s">
@@ -2703,10 +2844,10 @@
         <v>44</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="E47" s="14"/>
     </row>
@@ -2714,127 +2855,123 @@
       <c r="A48" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>88</v>
-      </c>
+      <c r="B48" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="12" t="s">
+      <c r="B49" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="12"/>
+      <c r="E49" s="14"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="12" t="s">
+      <c r="B50" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E50" s="12"/>
+      <c r="E50" s="14"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="12" t="s">
+      <c r="B51" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="12"/>
+      <c r="E51" s="14"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B52" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="14"/>
+      <c r="B52" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="14" t="s">
+      <c r="B53" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E53" s="14" t="s">
-        <v>87</v>
-      </c>
+      <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="14"/>
+      <c r="B54" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>86</v>
-      </c>
+      <c r="B55" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="12"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="11" t="s">
@@ -2844,14 +2981,12 @@
         <v>55</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>85</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E56" s="14"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="11" t="s">
@@ -2861,70 +2996,76 @@
         <v>55</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E57" s="14"/>
+        <v>65</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="12"/>
+      <c r="B58" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="14"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="12"/>
+      <c r="B59" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="14"/>
+        <v>65</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E61" s="14"/>
     </row>
@@ -2933,7 +3074,7 @@
         <v>37</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>4</v>
@@ -2948,7 +3089,7 @@
         <v>37</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>5</v>
@@ -2963,7 +3104,7 @@
         <v>37</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>4</v>
@@ -2978,7 +3119,7 @@
         <v>37</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>5</v>
@@ -2993,7 +3134,7 @@
         <v>37</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>4</v>
@@ -3008,7 +3149,7 @@
         <v>37</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>5</v>
@@ -3023,10 +3164,10 @@
         <v>37</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>3</v>
@@ -3038,10 +3179,10 @@
         <v>37</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>3</v>
@@ -3052,26 +3193,26 @@
       <c r="A70" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B70" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="14"/>
+      <c r="B70" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="12"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>3</v>
@@ -3082,46 +3223,46 @@
       <c r="A72" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="12"/>
+      <c r="B72" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="14"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="12"/>
+      <c r="B73" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="14"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="12"/>
+      <c r="B74" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="11" t="s">
@@ -3131,7 +3272,7 @@
         <v>67</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>3</v>
@@ -3146,17 +3287,77 @@
         <v>67</v>
       </c>
       <c r="C76" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="12"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="12"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="12"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="12"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D76" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="12"/>
+      <c r="D80" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E42" r:id="rId1" location="48"/>
-    <hyperlink ref="E48" r:id="rId2" location="48"/>
+    <hyperlink ref="E46" r:id="rId1" location="48"/>
+    <hyperlink ref="E52" r:id="rId2" location="48"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3170,10 +3371,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71:D76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3183,7 +3384,7 @@
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
+    <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3199,68 +3400,72 @@
       <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="18" customFormat="1">
+      <c r="A2" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:6" s="18" customFormat="1">
+      <c r="A3" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" s="18" customFormat="1">
+      <c r="A4" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" s="18" customFormat="1">
+      <c r="A5" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -3268,14 +3473,14 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -3283,142 +3488,142 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="D12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="D13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="D14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="D15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>3</v>
@@ -3429,176 +3634,176 @@
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="4"/>
+      <c r="B17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="4"/>
+      <c r="B18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="4"/>
+      <c r="B19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="8"/>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="8"/>
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="6"/>
+      <c r="C24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="10"/>
+      <c r="A25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="10"/>
+      <c r="A26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="10"/>
+      <c r="B27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>3</v>
@@ -3609,23 +3814,23 @@
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="6"/>
+      <c r="B29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>4</v>
@@ -3640,7 +3845,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>5</v>
@@ -3655,10 +3860,10 @@
         <v>25</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>3</v>
@@ -3670,10 +3875,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>3</v>
@@ -3684,26 +3889,26 @@
       <c r="A34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="6"/>
+      <c r="B34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>3</v>
@@ -3714,76 +3919,76 @@
       <c r="A36" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="12"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="12"/>
+      <c r="D40" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="11" t="s">
@@ -3793,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>3</v>
@@ -3804,61 +4009,61 @@
       <c r="A42" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="14"/>
+      <c r="B42" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="14"/>
+      <c r="B43" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="14"/>
+      <c r="B44" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="14"/>
+      <c r="B45" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="11" t="s">
@@ -3868,7 +4073,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>3</v>
@@ -3883,7 +4088,7 @@
         <v>44</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>3</v>
@@ -3894,121 +4099,121 @@
       <c r="A48" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="12"/>
+      <c r="B48" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="12"/>
+      <c r="B49" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="14"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="12"/>
+      <c r="B50" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="14"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="12"/>
+      <c r="B51" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="14"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B52" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="14"/>
+      <c r="B52" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="12"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="14"/>
+      <c r="B53" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="14"/>
+      <c r="B54" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="14"/>
+      <c r="B55" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="12"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="11" t="s">
@@ -4018,7 +4223,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>3</v>
@@ -4033,7 +4238,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>3</v>
@@ -4044,44 +4249,44 @@
       <c r="A58" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="12"/>
+      <c r="B58" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="14"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="12"/>
+      <c r="B59" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="14"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="E60" s="14"/>
     </row>
@@ -4090,13 +4295,13 @@
         <v>37</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="E61" s="14"/>
     </row>
@@ -4105,13 +4310,13 @@
         <v>37</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="E62" s="12"/>
     </row>
@@ -4120,13 +4325,13 @@
         <v>37</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="E63" s="12"/>
     </row>
@@ -4135,13 +4340,13 @@
         <v>37</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="E64" s="14"/>
     </row>
@@ -4150,13 +4355,13 @@
         <v>37</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E65" s="14"/>
     </row>
@@ -4165,13 +4370,13 @@
         <v>37</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="E66" s="12"/>
     </row>
@@ -4180,13 +4385,13 @@
         <v>37</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E67" s="12"/>
     </row>
@@ -4195,13 +4400,13 @@
         <v>37</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="E68" s="14"/>
     </row>
@@ -4210,13 +4415,13 @@
         <v>37</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E69" s="14"/>
     </row>
@@ -4224,26 +4429,26 @@
       <c r="A70" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B70" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E70" s="14"/>
+      <c r="B70" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="12"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>3</v>
@@ -4254,46 +4459,46 @@
       <c r="A72" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="12"/>
+      <c r="B72" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E72" s="14"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="12"/>
+      <c r="B73" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="14"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="12"/>
+      <c r="B74" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="11" t="s">
@@ -4303,7 +4508,7 @@
         <v>67</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>3</v>
@@ -4318,12 +4523,72 @@
         <v>67</v>
       </c>
       <c r="C76" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="12"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="12"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="12"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="12"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D76" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="12"/>
+      <c r="D80" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4338,10 +4603,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4351,7 +4616,7 @@
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
+    <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4367,68 +4632,77 @@
       <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="18" customFormat="1">
+      <c r="A2" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="18" customFormat="1">
+      <c r="A3" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" s="18" customFormat="1">
+      <c r="A4" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" s="18" customFormat="1">
+      <c r="A5" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -4436,14 +4710,14 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -4451,142 +4725,142 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="D12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="D13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="D14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="D15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>3</v>
@@ -4597,181 +4871,181 @@
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="4"/>
+      <c r="B17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="4"/>
+      <c r="B18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="4"/>
+      <c r="B19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="8"/>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="8"/>
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="6"/>
+      <c r="C24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="10"/>
+      <c r="A25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="10"/>
+      <c r="A26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="10"/>
+      <c r="B27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E28" s="6"/>
     </row>
@@ -4779,23 +5053,23 @@
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="6"/>
+      <c r="B29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>4</v>
@@ -4810,7 +5084,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>5</v>
@@ -4825,10 +5099,10 @@
         <v>25</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>3</v>
@@ -4840,10 +5114,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>3</v>
@@ -4854,26 +5128,26 @@
       <c r="A34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="6"/>
+      <c r="B34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>3</v>
@@ -4884,76 +5158,76 @@
       <c r="A36" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="12"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="12"/>
+      <c r="D40" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="11" t="s">
@@ -4963,7 +5237,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>3</v>
@@ -4974,61 +5248,61 @@
       <c r="A42" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="14"/>
+      <c r="B42" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="14"/>
+      <c r="B43" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="14"/>
+      <c r="B44" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="14"/>
+      <c r="B45" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="11" t="s">
@@ -5038,7 +5312,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>3</v>
@@ -5053,7 +5327,7 @@
         <v>44</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>3</v>
@@ -5064,121 +5338,121 @@
       <c r="A48" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="12"/>
+      <c r="B48" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="12"/>
+      <c r="B49" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="14"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="12"/>
+      <c r="B50" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="14"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="12"/>
+      <c r="B51" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="14"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B52" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="14"/>
+      <c r="B52" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="12"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="14"/>
+      <c r="B53" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="14"/>
+      <c r="B54" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="14"/>
+      <c r="B55" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="12"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="11" t="s">
@@ -5188,7 +5462,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>3</v>
@@ -5203,7 +5477,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>3</v>
@@ -5214,41 +5488,41 @@
       <c r="A58" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="12"/>
+      <c r="B58" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="14"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="12"/>
+      <c r="B59" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="14"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>3</v>
@@ -5260,10 +5534,10 @@
         <v>37</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>3</v>
@@ -5275,7 +5549,7 @@
         <v>37</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>4</v>
@@ -5290,7 +5564,7 @@
         <v>37</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>5</v>
@@ -5305,13 +5579,13 @@
         <v>37</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="E64" s="14"/>
     </row>
@@ -5320,13 +5594,13 @@
         <v>37</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="E65" s="14"/>
     </row>
@@ -5335,7 +5609,7 @@
         <v>37</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>4</v>
@@ -5350,7 +5624,7 @@
         <v>37</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>5</v>
@@ -5365,13 +5639,13 @@
         <v>37</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C68" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>3</v>
       </c>
       <c r="E68" s="14"/>
     </row>
@@ -5380,13 +5654,13 @@
         <v>37</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E69" s="14"/>
     </row>
@@ -5394,26 +5668,26 @@
       <c r="A70" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B70" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="14"/>
+      <c r="B70" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="12"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>3</v>
@@ -5424,46 +5698,46 @@
       <c r="A72" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="12"/>
+      <c r="B72" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="14"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="12"/>
+      <c r="B73" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="14"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="12"/>
+      <c r="B74" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="11" t="s">
@@ -5473,7 +5747,7 @@
         <v>67</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>3</v>
@@ -5488,12 +5762,72 @@
         <v>67</v>
       </c>
       <c r="C76" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="12"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="12"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="12"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="12"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D76" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="12"/>
+      <c r="D80" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trait_stressor_rankings/trait_stressor_sens_cco.xlsx
+++ b/trait_stressor_rankings/trait_stressor_sens_cco.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="5800" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="salinity" sheetId="3" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="108">
   <si>
     <t>category</t>
   </si>
@@ -381,6 +381,18 @@
   </si>
   <si>
     <t>light pollution may disrupt settlement of larvae of sessile inverts</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s10750-018-3665-1?shared-article-renderer shows OA reduces feeding efficiency in suspension feeder invertebrates and larvae</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/articles/10.3389/fmars.2020.00400/full - OA creates issues with osmoregulation/ion exchange at the gills in fish</t>
+  </si>
+  <si>
+    <t>assuming similar to gills</t>
+  </si>
+  <si>
+    <t>mangroves seem to actually increase pH, though via chemistry not gas exchange</t>
   </si>
 </sst>
 </file>
@@ -486,9 +498,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -523,7 +536,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -535,6 +548,7 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2121,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76:D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3275,7 +3289,7 @@
         <v>68</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E75" s="12"/>
     </row>
@@ -3290,9 +3304,11 @@
         <v>69</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="11" t="s">
@@ -3305,9 +3321,11 @@
         <v>70</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E77" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="11" t="s">
@@ -3320,9 +3338,11 @@
         <v>71</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E78" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="11" t="s">
@@ -3335,9 +3355,11 @@
         <v>72</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E79" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="11" t="s">
@@ -3350,9 +3372,11 @@
         <v>73</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" s="12"/>
+        <v>6</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4605,7 +4629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
